--- a/work.xlsx
+++ b/work.xlsx
@@ -1005,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E180"/>
+  <dimension ref="A1:E182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="E163" sqref="E163:E180"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2698,14 +2698,14 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" t="str">
-        <f t="shared" ref="A130:A147" si="4">UPPER(LEFT(C130,1))&amp;MID(C130,2,LEN(C130)-1)</f>
+        <f t="shared" ref="A130:A182" si="4">UPPER(LEFT(C130,1))&amp;MID(C130,2,LEN(C130)-1)</f>
         <v>Skyblue</v>
       </c>
       <c r="C130" t="s">
         <v>111</v>
       </c>
       <c r="E130" t="str">
-        <f t="shared" ref="E130:E149" si="5">"ColorMap["""&amp;UPPER(LEFT(C130,1))&amp;MID(C130,2,LEN(C130)-1)&amp;"""]="""&amp;C130&amp;""""</f>
+        <f t="shared" ref="E130:E147" si="5">"ColorMap["""&amp;UPPER(LEFT(C130,1))&amp;MID(C130,2,LEN(C130)-1)&amp;"""]="""&amp;C130&amp;""""</f>
         <v>ColorMap["Skyblue"]="skyblue"</v>
       </c>
     </row>
@@ -2930,7 +2930,17 @@
         <v>ColorMap["Yellowgreen"]="yellowgreen"</v>
       </c>
     </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A148" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A149" t="str">
+        <f t="shared" si="4"/>
+        <v>DashDot</v>
+      </c>
       <c r="C149" t="s">
         <v>146</v>
       </c>
@@ -2940,15 +2950,23 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A150" t="str">
+        <f t="shared" si="4"/>
+        <v>MediumDashDot</v>
+      </c>
       <c r="C150" t="s">
         <v>147</v>
       </c>
       <c r="E150" t="str">
-        <f t="shared" ref="E150:E163" si="6">"BorderMap["""&amp;UPPER(LEFT(C150,1))&amp;MID(C150,2,LEN(C150)-1)&amp;"""]="""&amp;C150&amp;""""</f>
+        <f t="shared" ref="E150:E161" si="6">"BorderMap["""&amp;UPPER(LEFT(C150,1))&amp;MID(C150,2,LEN(C150)-1)&amp;"""]="""&amp;C150&amp;""""</f>
         <v>BorderMap["MediumDashDot"]="mediumDashDot"</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A151" t="str">
+        <f t="shared" si="4"/>
+        <v>Dotted</v>
+      </c>
       <c r="C151" t="s">
         <v>148</v>
       </c>
@@ -2958,6 +2976,10 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A152" t="str">
+        <f t="shared" si="4"/>
+        <v>SlantDashDot</v>
+      </c>
       <c r="C152" t="s">
         <v>149</v>
       </c>
@@ -2967,6 +2989,10 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A153" t="str">
+        <f t="shared" si="4"/>
+        <v>Thick</v>
+      </c>
       <c r="C153" t="s">
         <v>150</v>
       </c>
@@ -2976,6 +3002,10 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A154" t="str">
+        <f t="shared" si="4"/>
+        <v>DashDotDot</v>
+      </c>
       <c r="C154" t="s">
         <v>151</v>
       </c>
@@ -2985,6 +3015,10 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A155" t="str">
+        <f t="shared" si="4"/>
+        <v>Hair</v>
+      </c>
       <c r="C155" t="s">
         <v>152</v>
       </c>
@@ -2994,6 +3028,10 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A156" t="str">
+        <f t="shared" si="4"/>
+        <v>MediumDashDotDot</v>
+      </c>
       <c r="C156" t="s">
         <v>153</v>
       </c>
@@ -3003,6 +3041,10 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A157" t="str">
+        <f t="shared" si="4"/>
+        <v>MediumDashed</v>
+      </c>
       <c r="C157" t="s">
         <v>154</v>
       </c>
@@ -3012,6 +3054,10 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A158" t="str">
+        <f t="shared" si="4"/>
+        <v>Thin</v>
+      </c>
       <c r="C158" t="s">
         <v>155</v>
       </c>
@@ -3021,6 +3067,10 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A159" t="str">
+        <f t="shared" si="4"/>
+        <v>Double</v>
+      </c>
       <c r="C159" t="s">
         <v>156</v>
       </c>
@@ -3030,6 +3080,10 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A160" t="str">
+        <f t="shared" si="4"/>
+        <v>Medium</v>
+      </c>
       <c r="C160" t="s">
         <v>157</v>
       </c>
@@ -3038,7 +3092,11 @@
         <v>BorderMap["Medium"]="medium"</v>
       </c>
     </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A161" t="str">
+        <f t="shared" si="4"/>
+        <v>Dashed</v>
+      </c>
       <c r="C161" t="s">
         <v>158</v>
       </c>
@@ -3047,7 +3105,17 @@
         <v>BorderMap["Dashed"]="dashed"</v>
       </c>
     </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A162" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A163" t="str">
+        <f t="shared" si="4"/>
+        <v>DarkTrellis</v>
+      </c>
       <c r="C163" t="s">
         <v>129</v>
       </c>
@@ -3056,7 +3124,11 @@
         <v>PatternMap["DarkTrellis"]="darkTrellis"</v>
       </c>
     </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A164" t="str">
+        <f t="shared" si="4"/>
+        <v>LightGray</v>
+      </c>
       <c r="C164" t="s">
         <v>130</v>
       </c>
@@ -3065,7 +3137,11 @@
         <v>PatternMap["LightGray"]="lightGray"</v>
       </c>
     </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A165" t="str">
+        <f t="shared" si="4"/>
+        <v>MediumGray</v>
+      </c>
       <c r="C165" t="s">
         <v>131</v>
       </c>
@@ -3074,7 +3150,11 @@
         <v>PatternMap["MediumGray"]="mediumGray"</v>
       </c>
     </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A166" t="str">
+        <f t="shared" si="4"/>
+        <v>LightGrid</v>
+      </c>
       <c r="C166" t="s">
         <v>132</v>
       </c>
@@ -3083,7 +3163,11 @@
         <v>PatternMap["LightGrid"]="lightGrid"</v>
       </c>
     </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A167" t="str">
+        <f t="shared" si="4"/>
+        <v>LightDown</v>
+      </c>
       <c r="C167" t="s">
         <v>133</v>
       </c>
@@ -3092,7 +3176,11 @@
         <v>PatternMap["LightDown"]="lightDown"</v>
       </c>
     </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A168" t="str">
+        <f t="shared" si="4"/>
+        <v>Gray0625</v>
+      </c>
       <c r="C168" t="s">
         <v>134</v>
       </c>
@@ -3101,7 +3189,11 @@
         <v>PatternMap["Gray0625"]="gray0625"</v>
       </c>
     </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A169" t="str">
+        <f t="shared" si="4"/>
+        <v>LightTrellis</v>
+      </c>
       <c r="C169" t="s">
         <v>135</v>
       </c>
@@ -3110,7 +3202,11 @@
         <v>PatternMap["LightTrellis"]="lightTrellis"</v>
       </c>
     </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A170" t="str">
+        <f t="shared" si="4"/>
+        <v>LightUp</v>
+      </c>
       <c r="C170" t="s">
         <v>136</v>
       </c>
@@ -3119,7 +3215,11 @@
         <v>PatternMap["LightUp"]="lightUp"</v>
       </c>
     </row>
-    <row r="171" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A171" t="str">
+        <f t="shared" si="4"/>
+        <v>DarkUp</v>
+      </c>
       <c r="C171" t="s">
         <v>137</v>
       </c>
@@ -3128,7 +3228,11 @@
         <v>PatternMap["DarkUp"]="darkUp"</v>
       </c>
     </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A172" t="str">
+        <f t="shared" si="4"/>
+        <v>DarkVertical</v>
+      </c>
       <c r="C172" t="s">
         <v>138</v>
       </c>
@@ -3137,7 +3241,11 @@
         <v>PatternMap["DarkVertical"]="darkVertical"</v>
       </c>
     </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A173" t="str">
+        <f t="shared" si="4"/>
+        <v>Gray125</v>
+      </c>
       <c r="C173" t="s">
         <v>139</v>
       </c>
@@ -3146,7 +3254,11 @@
         <v>PatternMap["Gray125"]="gray125"</v>
       </c>
     </row>
-    <row r="174" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A174" t="str">
+        <f t="shared" si="4"/>
+        <v>Solid</v>
+      </c>
       <c r="C174" t="s">
         <v>140</v>
       </c>
@@ -3155,7 +3267,11 @@
         <v>PatternMap["Solid"]="solid"</v>
       </c>
     </row>
-    <row r="175" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A175" t="str">
+        <f t="shared" si="4"/>
+        <v>DarkDown</v>
+      </c>
       <c r="C175" t="s">
         <v>141</v>
       </c>
@@ -3164,7 +3280,11 @@
         <v>PatternMap["DarkDown"]="darkDown"</v>
       </c>
     </row>
-    <row r="176" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A176" t="str">
+        <f t="shared" si="4"/>
+        <v>DarkHorizontal</v>
+      </c>
       <c r="C176" t="s">
         <v>142</v>
       </c>
@@ -3173,7 +3293,11 @@
         <v>PatternMap["DarkHorizontal"]="darkHorizontal"</v>
       </c>
     </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A177" t="str">
+        <f t="shared" si="4"/>
+        <v>LightVertical</v>
+      </c>
       <c r="C177" t="s">
         <v>143</v>
       </c>
@@ -3182,7 +3306,11 @@
         <v>PatternMap["LightVertical"]="lightVertical"</v>
       </c>
     </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A178" t="str">
+        <f t="shared" si="4"/>
+        <v>DarkGrid</v>
+      </c>
       <c r="C178" t="s">
         <v>144</v>
       </c>
@@ -3191,7 +3319,11 @@
         <v>PatternMap["DarkGrid"]="darkGrid"</v>
       </c>
     </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A179" t="str">
+        <f t="shared" si="4"/>
+        <v>LightHorizontal</v>
+      </c>
       <c r="C179" t="s">
         <v>145</v>
       </c>
@@ -3200,7 +3332,11 @@
         <v>PatternMap["LightHorizontal"]="lightHorizontal"</v>
       </c>
     </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A180" t="str">
+        <f t="shared" si="4"/>
+        <v>DarkGray</v>
+      </c>
       <c r="C180" t="s">
         <v>201</v>
       </c>
@@ -3209,10 +3345,22 @@
         <v>PatternMap["DarkGray"]="darkGray"</v>
       </c>
     </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A181" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A182" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
